--- a/czbbsspider/assets/2017.xlsx
+++ b/czbbsspider/assets/2017.xlsx
@@ -2781,7 +2781,7 @@
       <c r="T7" s="12" t="n"/>
       <c r="U7" s="23" t="n"/>
       <c r="V7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="8" s="28" spans="1:22">
@@ -2816,7 +2816,7 @@
       <c r="T8" s="12" t="n"/>
       <c r="U8" s="23" t="n"/>
       <c r="V8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="9" s="28" spans="1:22">
@@ -3337,7 +3337,7 @@
       <c r="T23" s="12" t="n"/>
       <c r="U23" s="23" t="n"/>
       <c r="V23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="24" s="28" spans="1:22">
@@ -3374,7 +3374,7 @@
       <c r="T24" s="12" t="n"/>
       <c r="U24" s="23" t="n"/>
       <c r="V24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="25" s="28" spans="1:22">
@@ -3413,7 +3413,7 @@
       <c r="T25" s="12" t="n"/>
       <c r="U25" s="23" t="n"/>
       <c r="V25" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="26" s="28" spans="1:22">
@@ -3452,7 +3452,7 @@
       <c r="T26" s="12" t="n"/>
       <c r="U26" s="23" t="n"/>
       <c r="V26" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="27" s="28" spans="1:22">
@@ -3524,7 +3524,7 @@
       <c r="T28" s="12" t="n"/>
       <c r="U28" s="23" t="n"/>
       <c r="V28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="29" s="28" spans="1:22">
@@ -3561,7 +3561,7 @@
       <c r="T29" s="12" t="n"/>
       <c r="U29" s="23" t="n"/>
       <c r="V29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="30" s="28" spans="1:22">
@@ -3670,7 +3670,7 @@
       <c r="T32" s="12" t="n"/>
       <c r="U32" s="23" t="n"/>
       <c r="V32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="33" s="28" spans="1:22">
@@ -3707,7 +3707,7 @@
       <c r="T33" s="12" t="n"/>
       <c r="U33" s="23" t="n"/>
       <c r="V33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="34" s="28" spans="1:22">
@@ -3781,7 +3781,7 @@
       <c r="T35" s="12" t="n"/>
       <c r="U35" s="23" t="n"/>
       <c r="V35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="36" s="28" spans="1:22">
@@ -3890,7 +3890,7 @@
       <c r="T38" s="12" t="n"/>
       <c r="U38" s="23" t="n"/>
       <c r="V38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="39" s="28" spans="1:22">
@@ -4001,7 +4001,7 @@
       <c r="T41" s="12" t="n"/>
       <c r="U41" s="23" t="n"/>
       <c r="V41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="42" s="28" spans="1:22">
@@ -4322,7 +4322,7 @@
       <c r="T50" s="12" t="n"/>
       <c r="U50" s="23" t="n"/>
       <c r="V50" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="51" s="28" spans="1:22">
@@ -4396,7 +4396,7 @@
       <c r="T52" s="12" t="n"/>
       <c r="U52" s="23" t="n"/>
       <c r="V52" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="53" s="28" spans="1:22">
@@ -4491,7 +4491,7 @@
       <c r="T55" s="12" t="n"/>
       <c r="U55" s="23" t="n"/>
       <c r="V55" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="56" s="28" spans="1:22">

--- a/czbbsspider/assets/2017.xlsx
+++ b/czbbsspider/assets/2017.xlsx
@@ -1765,7 +1765,7 @@
         <v/>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="6" s="2" spans="1:22">
@@ -1812,7 +1812,7 @@
         <v/>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="7" s="2" spans="1:22">
@@ -2047,7 +2047,7 @@
         <v/>
       </c>
       <c r="V11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="12" s="2" spans="1:22">
@@ -2237,7 +2237,7 @@
         <v/>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="16" s="2" spans="1:22">
@@ -2286,7 +2286,7 @@
         <v/>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="17" s="2" spans="1:22">
@@ -2333,7 +2333,7 @@
         <v/>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="18" s="2" spans="1:22">
@@ -2463,7 +2463,7 @@
         <v/>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="21" s="2" spans="1:22">
@@ -2514,7 +2514,7 @@
         <v/>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="22" s="2" spans="1:22">
@@ -2618,7 +2618,7 @@
         <v/>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="24" s="2" spans="1:22">
@@ -2671,7 +2671,7 @@
         <v/>
       </c>
       <c r="V24" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="25" s="2" spans="1:22">
@@ -2767,7 +2767,7 @@
         <v/>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="27" s="2" spans="1:22">
@@ -2867,7 +2867,7 @@
         <v/>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="29" s="2" spans="1:22">
@@ -2967,7 +2967,7 @@
         <v/>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="31" s="2" spans="1:22">
@@ -3018,7 +3018,7 @@
         <v/>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="32" s="2" spans="1:22">
@@ -3312,7 +3312,7 @@
         <v/>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="38" s="2" spans="1:22">
@@ -3412,7 +3412,7 @@
         <v/>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="40" s="2" spans="1:22">
@@ -3463,7 +3463,7 @@
         <v/>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41" s="2" spans="1:22">
@@ -3512,7 +3512,7 @@
         <v/>
       </c>
       <c r="V41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="42" s="2" spans="1:22">
@@ -3900,7 +3900,7 @@
         <v/>
       </c>
       <c r="V49" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="50" s="2" spans="1:22">
@@ -3951,7 +3951,7 @@
         <v/>
       </c>
       <c r="V50" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="51" s="2" spans="1:22">
@@ -4002,7 +4002,7 @@
         <v/>
       </c>
       <c r="V51" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52" s="2" spans="1:22">
@@ -4049,7 +4049,7 @@
         <v/>
       </c>
       <c r="V52" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row customHeight="1" ht="17.25" r="53" s="2" spans="1:22">
@@ -4096,7 +4096,7 @@
         <v/>
       </c>
       <c r="V53" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="54" s="2" spans="1:22">
@@ -4230,7 +4230,7 @@
         <v/>
       </c>
       <c r="V56" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="57" s="2" spans="1:22">
@@ -4277,7 +4277,7 @@
         <v/>
       </c>
       <c r="V57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="58" s="2" spans="1:22">
@@ -4645,7 +4645,7 @@
         <v/>
       </c>
       <c r="V65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
